--- a/results/OpenSource Tools/C - OpenSource tools (LICCA).xlsx
+++ b/results/OpenSource Tools/C - OpenSource tools (LICCA).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\OpenSource Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\results\OpenSource Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2212,28 +2212,28 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="T32" s="13">
-        <f>_xlfn.STDEV.S(C29,M29)</f>
-        <v>39.952318811241256</v>
+        <f>_xlfn.STDEV.P(C29,M29)</f>
+        <v>28.250555555555557</v>
       </c>
       <c r="U32" s="9">
-        <f>_xlfn.STDEV.S(E29,N29)</f>
-        <v>13.985000783467273</v>
+        <f>_xlfn.STDEV.P(E29,N29)</f>
+        <v>9.8888888888888893</v>
       </c>
       <c r="V32" s="9">
-        <f>_xlfn.STDEV.S(F29,O29)</f>
-        <v>322.18220540883186</v>
+        <f>_xlfn.STDEV.P(F29,O29)</f>
+        <v>227.8172222222222</v>
       </c>
       <c r="W32" s="9">
-        <f>_xlfn.STDEV.S(H29,Q29)</f>
-        <v>11.879786761034657</v>
+        <f>_xlfn.STDEV.P(H29,Q29)</f>
+        <v>8.4002777777777773</v>
       </c>
       <c r="X32" s="9">
-        <f>_xlfn.STDEV.S(L29,S29)</f>
-        <v>0.78567420131838617</v>
+        <f>_xlfn.STDEV.P(L29,S29)</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Y32" s="9">
-        <f>_xlfn.STDEV.S(J29,R29)</f>
-        <v>14.764602552358518</v>
+        <f>_xlfn.STDEV.P(J29,R29)</f>
+        <v>10.440150586296916</v>
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="25" t="s">
@@ -2242,28 +2242,28 @@
     </row>
     <row r="33" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T33" s="13">
-        <f>_xlfn.VAR.S(C29,M29)</f>
-        <v>1596.1877783950617</v>
+        <f>_xlfn.VAR.P(C29,M29)</f>
+        <v>798.09388919753087</v>
       </c>
       <c r="U33" s="9">
-        <f>_xlfn.VAR.S(E29,N29)</f>
-        <v>195.58024691358025</v>
+        <f>_xlfn.VAR.P(E29,N29)</f>
+        <v>97.790123456790127</v>
       </c>
       <c r="V33" s="9">
-        <f>_xlfn.VAR.S(F29,O29)</f>
-        <v>103801.37348209874</v>
+        <f>_xlfn.VAR.P(F29,O29)</f>
+        <v>51900.686741049372</v>
       </c>
       <c r="W33" s="9">
-        <f>_xlfn.VAR.S(H29,Q29)</f>
-        <v>141.12933348765429</v>
+        <f>_xlfn.VAR.P(H29,Q29)</f>
+        <v>70.564666743827146</v>
       </c>
       <c r="X33" s="9">
-        <f>_xlfn.VAR.S(L29,S29)</f>
-        <v>0.61728395061728403</v>
+        <f>_xlfn.VAR.P(L29,S29)</f>
+        <v>0.30864197530864201</v>
       </c>
       <c r="Y33" s="9">
-        <f>_xlfn.VAR.S(J29,R29)</f>
-        <v>217.99348852911169</v>
+        <f>_xlfn.VAR.P(J29,R29)</f>
+        <v>108.99674426455584</v>
       </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="25" t="s">
@@ -2956,20 +2956,20 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K61" s="13">
-        <f>_xlfn.STDEV.S(C58,G58)</f>
-        <v>6.7567981313381207</v>
+        <f>_xlfn.STDEV.P(C58,G58)</f>
+        <v>4.7777777777777777</v>
       </c>
       <c r="L61" s="9">
-        <f>_xlfn.STDEV.S(D58,H58)</f>
-        <v>7.2282026521291547</v>
+        <f>_xlfn.STDEV.P(D58,H58)</f>
+        <v>5.1111111111111125</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" ref="M61:N61" si="11">_xlfn.STDEV.S(E58,I58)</f>
-        <v>19.209734222234541</v>
+        <f>_xlfn.STDEV.P(E58,I58)</f>
+        <v>13.583333333333332</v>
       </c>
       <c r="N61" s="9">
-        <f t="shared" si="11"/>
-        <v>24.709453631463244</v>
+        <f>_xlfn.STDEV.P(F58,J58)</f>
+        <v>17.472222222222221</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="25" t="s">
@@ -2978,20 +2978,20 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K62" s="13">
-        <f>_xlfn.VAR.S(C58,G58)</f>
-        <v>45.654320987654316</v>
+        <f>_xlfn.VAR.P(C58,G58)</f>
+        <v>22.827160493827158</v>
       </c>
       <c r="L62" s="9">
-        <f>_xlfn.VAR.S(D58,H58)</f>
-        <v>52.24691358024694</v>
+        <f>_xlfn.VAR.P(D58,H58)</f>
+        <v>26.12345679012347</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" ref="M62:N62" si="12">_xlfn.VAR.S(E58,I58)</f>
-        <v>369.01388888888886</v>
+        <f>_xlfn.VAR.P(E58,I58)</f>
+        <v>184.50694444444443</v>
       </c>
       <c r="N62" s="9">
-        <f t="shared" si="12"/>
-        <v>610.5570987654321</v>
+        <f>_xlfn.VAR.P(F58,J58)</f>
+        <v>305.27854938271605</v>
       </c>
       <c r="O62" s="9"/>
       <c r="P62" s="25" t="s">

--- a/results/OpenSource Tools/C - OpenSource tools (LICCA).xlsx
+++ b/results/OpenSource Tools/C - OpenSource tools (LICCA).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>C-Static-Analyzer:</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>TPTR</t>
+  </si>
+  <si>
+    <t>Microsoft MI</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -450,11 +453,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,19 +746,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="9.44140625" customWidth="1"/>
     <col min="17" max="17" width="9.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" customWidth="1"/>
     <col min="19" max="19" width="11.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -908,7 +918,7 @@
       </c>
       <c r="K11" s="15">
         <f>171 - 5.2 * LN(G11) - 0.23 * (L11) - 16.2 * LN($T11)</f>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
@@ -931,13 +941,13 @@
       </c>
       <c r="R11" s="15">
         <f>171 - 5.2 * LN(O11) - 0.23 * (S11) - 16.2 * LN($T11)</f>
-        <v>98.466628480963749</v>
+        <v>99.876212788195744</v>
       </c>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
@@ -973,7 +983,7 @@
       </c>
       <c r="K12" s="15">
         <f>171 - 5.2 * LN(G12) - 0.23 * (L12) - 16.2 * LN($T12)</f>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
@@ -996,13 +1006,13 @@
       </c>
       <c r="R12" s="15">
         <f t="shared" ref="R12:R28" si="4">171 - 5.2 * LN(O12) - 0.23 * (S12) - 16.2 * LN($T12)</f>
-        <v>98.466628480963749</v>
+        <v>99.876212788195744</v>
       </c>
       <c r="S12">
         <v>2</v>
       </c>
       <c r="T12" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
@@ -1038,7 +1048,7 @@
       </c>
       <c r="K13" s="15">
         <f t="shared" ref="K13:K28" si="5">171 - 5.2 * LN(G13) - 0.23 * (L13) - 16.2 * LN($T13)</f>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L13" s="3">
         <v>1</v>
@@ -1061,13 +1071,13 @@
       </c>
       <c r="R13" s="15">
         <f t="shared" si="4"/>
-        <v>98.146165296226769</v>
+        <v>99.555749603458764</v>
       </c>
       <c r="S13">
         <v>2</v>
       </c>
       <c r="T13" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
@@ -1103,7 +1113,7 @@
       </c>
       <c r="K14" s="15">
         <f t="shared" si="5"/>
-        <v>113.03706219035627</v>
+        <v>114.33375405466757</v>
       </c>
       <c r="L14" s="3">
         <v>1</v>
@@ -1126,13 +1136,13 @@
       </c>
       <c r="R14" s="15">
         <f t="shared" si="4"/>
-        <v>97.16993661665245</v>
+        <v>98.466628480963749</v>
       </c>
       <c r="S14">
         <v>2</v>
       </c>
       <c r="T14" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
@@ -1168,7 +1178,7 @@
       </c>
       <c r="K15" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L15" s="3">
         <v>1</v>
@@ -1191,13 +1201,13 @@
       </c>
       <c r="R15" s="15">
         <f t="shared" si="4"/>
-        <v>97.835179244056775</v>
+        <v>99.24476355128877</v>
       </c>
       <c r="S15">
         <v>2</v>
       </c>
       <c r="T15" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
@@ -1233,7 +1243,7 @@
       </c>
       <c r="K16" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L16" s="3">
         <v>1</v>
@@ -1256,13 +1266,13 @@
       </c>
       <c r="R16" s="15">
         <f t="shared" si="4"/>
-        <v>97.835179244056775</v>
+        <v>99.24476355128877</v>
       </c>
       <c r="S16">
         <v>2</v>
       </c>
       <c r="T16" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
@@ -1298,7 +1308,7 @@
       </c>
       <c r="K17" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L17" s="3">
         <v>1</v>
@@ -1321,13 +1331,13 @@
       </c>
       <c r="R17" s="15">
         <f t="shared" si="4"/>
-        <v>98.796425384816359</v>
+        <v>100.20600969204835</v>
       </c>
       <c r="S17">
         <v>2</v>
       </c>
       <c r="T17" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
@@ -1363,7 +1373,7 @@
       </c>
       <c r="K18" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L18" s="3">
         <v>1</v>
@@ -1386,13 +1396,13 @@
       </c>
       <c r="R18" s="15">
         <f t="shared" si="4"/>
-        <v>98.466628480963749</v>
+        <v>99.876212788195744</v>
       </c>
       <c r="S18">
         <v>2</v>
       </c>
       <c r="T18" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
@@ -1428,7 +1438,7 @@
       </c>
       <c r="K19" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L19" s="3">
         <v>1</v>
@@ -1451,13 +1461,13 @@
       </c>
       <c r="R19" s="15">
         <f t="shared" si="4"/>
-        <v>98.466628480963749</v>
+        <v>99.876212788195744</v>
       </c>
       <c r="S19">
         <v>2</v>
       </c>
       <c r="T19" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
@@ -1493,7 +1503,7 @@
       </c>
       <c r="K20" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L20" s="3">
         <v>1</v>
@@ -1516,13 +1526,13 @@
       </c>
       <c r="R20" s="15">
         <f t="shared" si="4"/>
-        <v>98.466628480963749</v>
+        <v>99.876212788195744</v>
       </c>
       <c r="S20">
         <v>2</v>
       </c>
       <c r="T20" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
@@ -1558,7 +1568,7 @@
       </c>
       <c r="K21" s="15">
         <f t="shared" si="5"/>
-        <v>111.83651304146599</v>
+        <v>113.03706219035627</v>
       </c>
       <c r="L21" s="3">
         <v>1</v>
@@ -1581,13 +1591,13 @@
       </c>
       <c r="R21" s="15">
         <f t="shared" si="4"/>
-        <v>94.205750483079299</v>
+        <v>95.406299631969574</v>
       </c>
       <c r="S21">
         <v>3</v>
       </c>
       <c r="T21" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
@@ -1623,7 +1633,7 @@
       </c>
       <c r="K22" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L22" s="3">
         <v>1</v>
@@ -1646,13 +1656,13 @@
       </c>
       <c r="R22" s="15">
         <f t="shared" si="4"/>
-        <v>98.157153491738768</v>
+        <v>99.566737798970763</v>
       </c>
       <c r="S22">
         <v>2</v>
       </c>
       <c r="T22" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
@@ -1688,7 +1698,7 @@
       </c>
       <c r="K23" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L23" s="3">
         <v>1</v>
@@ -1711,13 +1721,13 @@
       </c>
       <c r="R23" s="15">
         <f t="shared" si="4"/>
-        <v>96.702991496280873</v>
+        <v>98.112575803512868</v>
       </c>
       <c r="S23">
         <v>3</v>
       </c>
       <c r="T23" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.3">
@@ -1753,7 +1763,7 @@
       </c>
       <c r="K24" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L24" s="3">
         <v>1</v>
@@ -1776,13 +1786,13 @@
       </c>
       <c r="R24" s="15">
         <f t="shared" si="4"/>
-        <v>98.466628480963749</v>
+        <v>99.876212788195744</v>
       </c>
       <c r="S24">
         <v>2</v>
       </c>
       <c r="T24" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.3">
@@ -1818,7 +1828,7 @@
       </c>
       <c r="K25" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L25" s="3">
         <v>1</v>
@@ -1841,13 +1851,13 @@
       </c>
       <c r="R25" s="15">
         <f t="shared" si="4"/>
-        <v>98.466628480963749</v>
+        <v>99.876212788195744</v>
       </c>
       <c r="S25">
         <v>2</v>
       </c>
       <c r="T25" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
@@ -1883,7 +1893,7 @@
       </c>
       <c r="K26" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L26" s="3">
         <v>1</v>
@@ -1906,13 +1916,13 @@
       </c>
       <c r="R26" s="15">
         <f t="shared" si="4"/>
-        <v>98.466628480963749</v>
+        <v>99.876212788195744</v>
       </c>
       <c r="S26">
         <v>2</v>
       </c>
       <c r="T26" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.3">
@@ -1948,7 +1958,7 @@
       </c>
       <c r="K27" s="15">
         <f t="shared" si="5"/>
-        <v>113.03706219035627</v>
+        <v>114.33375405466757</v>
       </c>
       <c r="L27" s="3">
         <v>1</v>
@@ -1971,13 +1981,13 @@
       </c>
       <c r="R27" s="15">
         <f t="shared" si="4"/>
-        <v>97.16993661665245</v>
+        <v>98.466628480963749</v>
       </c>
       <c r="S27">
         <v>2</v>
       </c>
       <c r="T27" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2013,7 +2023,7 @@
       </c>
       <c r="K28" s="15">
         <f t="shared" si="5"/>
-        <v>114.33375405466757</v>
+        <v>115.74333836189956</v>
       </c>
       <c r="L28" s="3">
         <v>1</v>
@@ -2036,20 +2046,14 @@
       </c>
       <c r="R28" s="15">
         <f t="shared" si="4"/>
-        <v>98.82283317203985</v>
+        <v>100.23241747927185</v>
       </c>
       <c r="S28">
         <v>2</v>
       </c>
       <c r="T28" s="20">
-        <v>12</v>
-      </c>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="31"/>
@@ -2087,7 +2091,7 @@
       </c>
       <c r="K29" s="22">
         <f t="shared" si="6"/>
-        <v>114.0509415690107</v>
+        <v>115.43636920712136</v>
       </c>
       <c r="L29" s="22">
         <f t="shared" si="6"/>
@@ -2115,197 +2119,239 @@
       </c>
       <c r="R29" s="22">
         <f t="shared" si="6"/>
-        <v>97.920809938517252</v>
-      </c>
-      <c r="S29" s="22">
+        <v>99.306237576627936</v>
+      </c>
+      <c r="S29" s="46">
         <f t="shared" si="6"/>
         <v>2.1111111111111112</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="18">
+        <f>AVERAGE(T11:T28)</f>
+        <v>11.222222222222221</v>
+      </c>
+      <c r="U29" s="45"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="J30" s="49">
+        <f>MAX(0,(171 - 5.2 * LN(G29) - 0.23 * (L29) - 16.2 * LN(T29))*100 / 171)</f>
+        <v>67.496682784357617</v>
+      </c>
+      <c r="R30" s="49">
+        <f>MAX(0,(171 - 5.2 * LN(P29) - 0.23 * (S29) - 16.2 * LN(T29))*100 / 171)</f>
+        <v>59.151368816838186</v>
+      </c>
+      <c r="T30" s="23">
         <f>AVERAGE(C29,M29)</f>
         <v>41.860555555555557</v>
       </c>
-      <c r="U29" s="36">
+      <c r="U30" s="24">
         <f>AVERAGE(E29,N29)</f>
         <v>16.888888888888889</v>
       </c>
-      <c r="V29" s="24">
+      <c r="V30" s="24">
         <f>AVERAGE(F29,O29)</f>
         <v>250.27722222222218</v>
       </c>
-      <c r="W29" s="24">
+      <c r="W30" s="24">
         <f>AVERAGE(H29,Q29)</f>
         <v>10.900277777777777</v>
       </c>
-      <c r="X29" s="24">
+      <c r="X30" s="24">
         <f>AVERAGE(L29,S29)</f>
         <v>1.5555555555555556</v>
       </c>
-      <c r="Y29" s="24">
+      <c r="Y30" s="24">
         <f>AVERAGE(J29,R29)</f>
-        <v>108.36096052481417</v>
-      </c>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="25" t="s">
+        <v>109.05367434386952</v>
+      </c>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="T30" s="23">
+    <row r="31" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" s="23">
         <f>MIN(C29,M29)</f>
         <v>13.610000000000005</v>
       </c>
-      <c r="U30" s="24">
+      <c r="U31" s="24">
         <f>MIN(E29,N29)</f>
         <v>7</v>
       </c>
-      <c r="V30" s="24">
+      <c r="V31" s="24">
         <f>MIN(F29,O29)</f>
         <v>22.459999999999994</v>
       </c>
-      <c r="W30" s="24">
+      <c r="W31" s="24">
         <f>MIN(H29,Q29)</f>
         <v>2.5</v>
       </c>
-      <c r="X30" s="24">
+      <c r="X31" s="24">
         <f>MIN(L29,S29)</f>
         <v>1</v>
       </c>
-      <c r="Y30" s="24">
+      <c r="Y31" s="24">
         <f>MIN(J29,R29)</f>
-        <v>97.920809938517252</v>
-      </c>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="25" t="s">
+        <v>99.306237576627936</v>
+      </c>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="T31" s="23">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="T32" s="23">
         <f>MAX(C29,M29)</f>
         <v>70.111111111111114</v>
       </c>
-      <c r="U31" s="24">
+      <c r="U32" s="24">
         <f>MAX(E29,N29)</f>
         <v>26.777777777777779</v>
       </c>
-      <c r="V31" s="24">
+      <c r="V32" s="24">
         <f>MAX(F29,O29)</f>
         <v>478.09444444444438</v>
       </c>
-      <c r="W31" s="24">
+      <c r="W32" s="24">
         <f>MAX(H29,Q29)</f>
         <v>19.300555555555555</v>
       </c>
-      <c r="X31" s="24">
+      <c r="X32" s="24">
         <f>MAX(L29,S29)</f>
         <v>2.1111111111111112</v>
       </c>
-      <c r="Y31" s="24">
+      <c r="Y32" s="24">
         <f>MAX(J29,R29)</f>
         <v>118.80111111111108</v>
       </c>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="25" t="s">
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="T32" s="13">
+    <row r="33" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="13">
         <f>_xlfn.STDEV.P(C29,M29)</f>
         <v>28.250555555555557</v>
       </c>
-      <c r="U32" s="9">
+      <c r="U33" s="9">
         <f>_xlfn.STDEV.P(E29,N29)</f>
         <v>9.8888888888888893</v>
       </c>
-      <c r="V32" s="9">
+      <c r="V33" s="9">
         <f>_xlfn.STDEV.P(F29,O29)</f>
         <v>227.8172222222222</v>
       </c>
-      <c r="W32" s="9">
+      <c r="W33" s="9">
         <f>_xlfn.STDEV.P(H29,Q29)</f>
         <v>8.4002777777777773</v>
       </c>
-      <c r="X32" s="9">
+      <c r="X33" s="9">
         <f>_xlfn.STDEV.P(L29,S29)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="Y32" s="9">
+      <c r="Y33" s="9">
         <f>_xlfn.STDEV.P(J29,R29)</f>
-        <v>10.440150586296916</v>
-      </c>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="25" t="s">
+        <v>9.7474367672415738</v>
+      </c>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="T33" s="13">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="T34" s="13">
         <f>_xlfn.VAR.P(C29,M29)</f>
         <v>798.09388919753087</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U34" s="9">
         <f>_xlfn.VAR.P(E29,N29)</f>
         <v>97.790123456790127</v>
       </c>
-      <c r="V33" s="9">
+      <c r="V34" s="9">
         <f>_xlfn.VAR.P(F29,O29)</f>
         <v>51900.686741049372</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W34" s="9">
         <f>_xlfn.VAR.P(H29,Q29)</f>
         <v>70.564666743827146</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X34" s="9">
         <f>_xlfn.VAR.P(L29,S29)</f>
         <v>0.30864197530864201</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y34" s="9">
         <f>_xlfn.VAR.P(J29,R29)</f>
-        <v>108.99674426455584</v>
-      </c>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="25" t="s">
+        <v>95.012523531372864</v>
+      </c>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="T34" s="26" t="s">
+    <row r="35" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T35" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="U35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="W34" s="11" t="s">
+      <c r="W35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="X34" s="11" t="s">
+      <c r="X35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Y34" s="11" t="s">
+      <c r="Y35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="10"/>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="10"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="Y36" s="49">
+        <f>AVERAGE(J30,R30)</f>
+        <v>63.324025800597902</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="Y37" s="17">
+        <f>_xlfn.STDEV.P(J30,R30)</f>
+        <v>4.1726569837597154</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="9"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="47"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="9"/>
       <c r="J38" s="3"/>
+      <c r="Y38" s="50" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
@@ -3020,5 +3066,6 @@
     <mergeCell ref="G38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>